--- a/src/pom/ExcelData/HRSetup/TestSetup.xlsx
+++ b/src/pom/ExcelData/HRSetup/TestSetup.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="TestSetup" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -34,10 +34,10 @@
     <t>Question Code</t>
   </si>
   <si>
-    <t>Test33T</t>
-  </si>
-  <si>
-    <t>Internal3</t>
+    <t>Tery33T</t>
+  </si>
+  <si>
+    <t>Inregdal3</t>
   </si>
   <si>
     <t>Confirmation Feedback</t>
@@ -52,10 +52,10 @@
     <t>SELECT ALL</t>
   </si>
   <si>
-    <t>Test34T</t>
-  </si>
-  <si>
-    <t>Internal4</t>
+    <t>Terty4T</t>
+  </si>
+  <si>
+    <t>Inregdal4</t>
   </si>
   <si>
     <t>60.0</t>
@@ -67,9 +67,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -499,7 +499,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="5"/>
